--- a/csv_files/Try 3/Output_j1.xlsx
+++ b/csv_files/Try 3/Output_j1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spide\Documents\TU Delft\Thesis Project\MSc Thesis - Piotr K\PiotrThesis\PiotrThesis\csv_files\Try 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39849417-4034-4EB5-B763-818A5FF78A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6202E884-5A11-4793-8A16-6FEB700D670E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LCOH" sheetId="12" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="29">
   <si>
     <t>longitude</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t>Total yearly cost</t>
+  </si>
+  <si>
+    <t>Present Value Costs</t>
+  </si>
+  <si>
+    <t>Cost NPV</t>
   </si>
 </sst>
 </file>
@@ -519,15 +525,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BAEFDA1-DF5B-4347-95FE-CFC6BED5D5A3}">
-  <dimension ref="A1:AA38"/>
+  <dimension ref="A1:AK38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="Z6" workbookViewId="0">
+      <selection activeCell="Z21" sqref="Z21:AK38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
@@ -558,6 +567,9 @@
         <v>24</v>
       </c>
       <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -577,12 +589,19 @@
         <v>542502844.03413725</v>
       </c>
       <c r="E3">
-        <f>SUM(O23:Y23)</f>
+        <f t="shared" ref="E3:E18" si="0">SUM(O23:Y23)</f>
         <v>6172140667.9148054</v>
       </c>
       <c r="F3">
-        <f>E3/D3</f>
-        <v>11.377158176753117</v>
+        <f>AK23</f>
+        <v>2917289491.1397805</v>
+      </c>
+      <c r="G3">
+        <f>F3/D3</f>
+        <v>5.3774639584308037</v>
+      </c>
+      <c r="P3" t="s">
+        <v>19</v>
       </c>
       <c r="Q3">
         <v>2020</v>
@@ -629,16 +648,20 @@
         <v>3.3420925930199541</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D18" si="0">$Q$8</f>
+        <f t="shared" ref="D4:D18" si="1">$Q$8</f>
         <v>542502844.03413725</v>
       </c>
       <c r="E4">
-        <f>SUM(O24:Y24)</f>
+        <f t="shared" si="0"/>
         <v>6114146025.4016781</v>
       </c>
       <c r="F4">
-        <f>E4/D4</f>
-        <v>11.270256170338053</v>
+        <f t="shared" ref="F4:F18" si="2">AK24</f>
+        <v>2888474812.2337656</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G18" si="3">F4/D4</f>
+        <v>5.3243496213855925</v>
       </c>
       <c r="P4" t="s">
         <v>17</v>
@@ -688,16 +711,20 @@
         <v>3.3337034176087541</v>
       </c>
       <c r="D5">
+        <f t="shared" si="1"/>
+        <v>542502844.03413725</v>
+      </c>
+      <c r="E5">
         <f t="shared" si="0"/>
-        <v>542502844.03413725</v>
-      </c>
-      <c r="E5">
-        <f>SUM(O25:Y25)</f>
         <v>6091990976.3345175</v>
       </c>
       <c r="F5">
-        <f>E5/D5</f>
-        <v>11.229417584308878</v>
+        <f t="shared" si="2"/>
+        <v>2877092352.5920882</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>5.3033682389525794</v>
       </c>
       <c r="P5" t="s">
         <v>18</v>
@@ -707,43 +734,43 @@
         <v>1</v>
       </c>
       <c r="R5">
-        <f t="shared" ref="R5:AA5" si="1">1/(1+$R$1)^R4</f>
+        <f t="shared" ref="R5:AA5" si="4">1/(1+$R$1)^R4</f>
         <v>0.79383224102016958</v>
       </c>
       <c r="S5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.63016962688310452</v>
       </c>
       <c r="T5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.50024896713145905</v>
       </c>
       <c r="U5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.39711375864599124</v>
       </c>
       <c r="V5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.31524170496588994</v>
       </c>
       <c r="W5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.25024902911609154</v>
       </c>
       <c r="X5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.19865574759634863</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.1576993373059466</v>
       </c>
       <c r="Z5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.12518681834097523</v>
       </c>
       <c r="AA5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9.9377332549801231E-2</v>
       </c>
     </row>
@@ -758,16 +785,20 @@
         <v>3.3440862306857322</v>
       </c>
       <c r="D6">
+        <f t="shared" si="1"/>
+        <v>542502844.03413725</v>
+      </c>
+      <c r="E6">
         <f t="shared" si="0"/>
-        <v>542502844.03413725</v>
-      </c>
-      <c r="E6">
-        <f>SUM(O26:Y26)</f>
         <v>6116210335.6284122</v>
       </c>
       <c r="F6">
-        <f>E6/D6</f>
-        <v>11.274061330531103</v>
+        <f t="shared" si="2"/>
+        <v>2888924802.2351651</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>5.3251790916940855</v>
       </c>
       <c r="P6" t="s">
         <v>19</v>
@@ -777,43 +808,43 @@
         <v>121425742.574257</v>
       </c>
       <c r="R6">
-        <f t="shared" ref="R6:AA6" si="2">1000*121425.742574257</f>
+        <f t="shared" ref="R6:AA6" si="5">1000*121425.742574257</f>
         <v>121425742.574257</v>
       </c>
       <c r="S6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>121425742.574257</v>
       </c>
       <c r="T6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>121425742.574257</v>
       </c>
       <c r="U6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>121425742.574257</v>
       </c>
       <c r="V6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>121425742.574257</v>
       </c>
       <c r="W6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>121425742.574257</v>
       </c>
       <c r="X6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>121425742.574257</v>
       </c>
       <c r="Y6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>121425742.574257</v>
       </c>
       <c r="Z6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>121425742.574257</v>
       </c>
       <c r="AA6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>121425742.574257</v>
       </c>
     </row>
@@ -828,16 +859,20 @@
         <v>3.3727085839829001</v>
       </c>
       <c r="D7">
+        <f t="shared" si="1"/>
+        <v>542502844.03413725</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="0"/>
-        <v>542502844.03413725</v>
-      </c>
-      <c r="E7">
-        <f>SUM(O27:Y27)</f>
         <v>6186763721.258955</v>
       </c>
       <c r="F7">
-        <f>E7/D7</f>
-        <v>11.404112972483606</v>
+        <f t="shared" si="2"/>
+        <v>2925533725.1362963</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>5.392660623456945</v>
       </c>
       <c r="P7" t="s">
         <v>20</v>
@@ -847,43 +882,43 @@
         <v>121425742.574257</v>
       </c>
       <c r="R7">
-        <f t="shared" ref="R7:AA7" si="3">R6*R5</f>
+        <f t="shared" ref="R7:AA7" si="6">R6*R5</f>
         <v>96391669.34526065</v>
       </c>
       <c r="S7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>76518814.892023429</v>
       </c>
       <c r="T7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>60743102.305942498</v>
       </c>
       <c r="U7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>48219833.030043758</v>
       </c>
       <c r="V7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>38278458.115858026</v>
       </c>
       <c r="W7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>30386674.188908275</v>
       </c>
       <c r="X7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>24121921.668530803</v>
       </c>
       <c r="Y7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>19148759.135842796</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>15200902.377561532</v>
       </c>
       <c r="AA7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>12066966.399908496</v>
       </c>
     </row>
@@ -898,16 +933,20 @@
         <v>3.364724648554517</v>
       </c>
       <c r="D8">
+        <f t="shared" si="1"/>
+        <v>542502844.03413725</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="0"/>
-        <v>542502844.03413725</v>
-      </c>
-      <c r="E8">
-        <f>SUM(O28:Y28)</f>
         <v>6166762022.8922567</v>
       </c>
       <c r="F8">
-        <f>E8/D8</f>
-        <v>11.367243675692528</v>
+        <f t="shared" si="2"/>
+        <v>2915055410.122366</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>5.3733458583286886</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>21</v>
@@ -928,16 +967,20 @@
         <v>3.3671715031676221</v>
       </c>
       <c r="D9">
+        <f t="shared" si="1"/>
+        <v>542502844.03413725</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="0"/>
-        <v>542502844.03413725</v>
-      </c>
-      <c r="E9">
-        <f>SUM(O29:Y29)</f>
         <v>6167681691.3774166</v>
       </c>
       <c r="F9">
-        <f>E9/D9</f>
-        <v>11.368938908252639</v>
+        <f t="shared" si="2"/>
+        <v>2915145217.2810106</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>5.3735114006104157</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
@@ -951,16 +994,20 @@
         <v>3.3722926614760009</v>
       </c>
       <c r="D10">
+        <f t="shared" si="1"/>
+        <v>542502844.03413725</v>
+      </c>
+      <c r="E10">
         <f t="shared" si="0"/>
-        <v>542502844.03413725</v>
-      </c>
-      <c r="E10">
-        <f>SUM(O30:Y30)</f>
         <v>6187378163.4211807</v>
       </c>
       <c r="F10">
-        <f>E10/D10</f>
-        <v>11.405245578826564</v>
+        <f t="shared" si="2"/>
+        <v>2925654910.4145026</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>5.3928840052871765</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
@@ -974,16 +1021,20 @@
         <v>3.3765644057216142</v>
       </c>
       <c r="D11">
+        <f t="shared" si="1"/>
+        <v>542502844.03413725</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="0"/>
-        <v>542502844.03413725</v>
-      </c>
-      <c r="E11">
-        <f>SUM(O31:Y31)</f>
         <v>6205004485.6705189</v>
       </c>
       <c r="F11">
-        <f>E11/D11</f>
-        <v>11.437736325083792</v>
+        <f t="shared" si="2"/>
+        <v>2935287261.3946471</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>5.4106393978829406</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
@@ -997,16 +1048,20 @@
         <v>3.3709222950620679</v>
       </c>
       <c r="D12">
+        <f t="shared" si="1"/>
+        <v>542502844.03413725</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="0"/>
-        <v>542502844.03413725</v>
-      </c>
-      <c r="E12">
-        <f>SUM(O32:Y32)</f>
         <v>6187389785.9355526</v>
       </c>
       <c r="F12">
-        <f>E12/D12</f>
-        <v>11.405267002703875</v>
+        <f t="shared" si="2"/>
+        <v>2925586326.1861873</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>5.3927575834092645</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
@@ -1020,16 +1075,20 @@
         <v>3.3659225342470092</v>
       </c>
       <c r="D13">
+        <f t="shared" si="1"/>
+        <v>542502844.03413725</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="0"/>
-        <v>542502844.03413725</v>
-      </c>
-      <c r="E13">
-        <f>SUM(O33:Y33)</f>
         <v>6180683953.287672</v>
       </c>
       <c r="F13">
-        <f>E13/D13</f>
-        <v>11.392906085666068</v>
+        <f t="shared" si="2"/>
+        <v>2923219269.8411155</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>5.3883943687808031</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
@@ -1043,16 +1102,20 @@
         <v>3.3808682215128578</v>
       </c>
       <c r="D14">
+        <f t="shared" si="1"/>
+        <v>542502844.03413725</v>
+      </c>
+      <c r="E14">
         <f t="shared" si="0"/>
-        <v>542502844.03413725</v>
-      </c>
-      <c r="E14">
-        <f>SUM(O34:Y34)</f>
         <v>6216715712.2159157</v>
       </c>
       <c r="F14">
-        <f>E14/D14</f>
-        <v>11.459323726282117</v>
+        <f t="shared" si="2"/>
+        <v>2942026930.0743566</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>5.4230626851593575</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
@@ -1066,17 +1129,22 @@
         <v>3.4232600997819609</v>
       </c>
       <c r="D15">
+        <f t="shared" si="1"/>
+        <v>542502844.03413725</v>
+      </c>
+      <c r="E15">
         <f t="shared" si="0"/>
-        <v>542502844.03413725</v>
-      </c>
-      <c r="E15">
-        <f>SUM(O35:Y35)</f>
         <v>6313766113.7416515</v>
       </c>
       <c r="F15">
-        <f>E15/D15</f>
-        <v>11.638217537794796</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>2990554301.6835933</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>5.5125135924548463</v>
+      </c>
+      <c r="P15" s="2"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1089,19 +1157,23 @@
         <v>3.5746407887952421</v>
       </c>
       <c r="D16">
+        <f t="shared" si="1"/>
+        <v>542502844.03413725</v>
+      </c>
+      <c r="E16">
         <f t="shared" si="0"/>
-        <v>542502844.03413725</v>
-      </c>
-      <c r="E16">
-        <f>SUM(O36:Y36)</f>
         <v>6729408663.070652</v>
       </c>
       <c r="F16">
-        <f>E16/D16</f>
-        <v>12.404374902497656</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>3208024992.0480809</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="3"/>
+        <v>5.9133791229419144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6.78</v>
       </c>
@@ -1112,19 +1184,23 @@
         <v>3.7444247480576629</v>
       </c>
       <c r="D17">
+        <f t="shared" si="1"/>
+        <v>542502844.03413725</v>
+      </c>
+      <c r="E17">
         <f t="shared" si="0"/>
-        <v>542502844.03413725</v>
-      </c>
-      <c r="E17">
-        <f>SUM(O37:Y37)</f>
         <v>7201490282.4108543</v>
       </c>
       <c r="F17">
-        <f>E17/D17</f>
-        <v>13.27456687389771</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>3458873061.9956007</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>6.3757694545430796</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>7.78</v>
       </c>
@@ -1135,27 +1211,37 @@
         <v>4.0416649059473944</v>
       </c>
       <c r="D18">
+        <f t="shared" si="1"/>
+        <v>542502844.03413725</v>
+      </c>
+      <c r="E18">
         <f t="shared" si="0"/>
-        <v>542502844.03413725</v>
-      </c>
-      <c r="E18">
-        <f>SUM(O38:Y38)</f>
         <v>8015066562.6055975</v>
       </c>
       <c r="F18">
-        <f>E18/D18</f>
-        <v>14.77423879108963</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>3878288710.8677983</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="3"/>
+        <v>7.1488818049841507</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>25</v>
       </c>
       <c r="O21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z21" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -1228,8 +1314,41 @@
       <c r="Y22">
         <v>2050</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z22">
+        <v>2020</v>
+      </c>
+      <c r="AA22">
+        <v>2023</v>
+      </c>
+      <c r="AB22">
+        <v>2026</v>
+      </c>
+      <c r="AC22">
+        <v>2029</v>
+      </c>
+      <c r="AD22">
+        <v>2032</v>
+      </c>
+      <c r="AE22">
+        <v>2035</v>
+      </c>
+      <c r="AF22">
+        <v>2038</v>
+      </c>
+      <c r="AG22">
+        <v>2041</v>
+      </c>
+      <c r="AH22">
+        <v>2044</v>
+      </c>
+      <c r="AI22">
+        <v>2047</v>
+      </c>
+      <c r="AJ22">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4.78</v>
       </c>
@@ -1285,51 +1404,99 @@
         <v>121425742.574257</v>
       </c>
       <c r="O23">
-        <f t="shared" ref="O23:O38" si="4">C23*$N$23</f>
+        <f t="shared" ref="O23:O38" si="7">C23*$N$23</f>
         <v>816941991.36982632</v>
       </c>
       <c r="P23">
-        <f t="shared" ref="P23:P38" si="5">D23*$N$23</f>
+        <f t="shared" ref="P23:P38" si="8">D23*$N$23</f>
         <v>751861078.98319304</v>
       </c>
       <c r="Q23">
-        <f t="shared" ref="Q23:Q38" si="6">E23*$N$23</f>
+        <f t="shared" ref="Q23:Q38" si="9">E23*$N$23</f>
         <v>686796994.88458431</v>
       </c>
       <c r="R23">
-        <f t="shared" ref="R23:R38" si="7">F23*$N$23</f>
+        <f t="shared" ref="R23:R38" si="10">F23*$N$23</f>
         <v>621740957.10586917</v>
       </c>
       <c r="S23">
-        <f t="shared" ref="S23:S38" si="8">G23*$N$23</f>
+        <f t="shared" ref="S23:S38" si="11">G23*$N$23</f>
         <v>562213269.94762731</v>
       </c>
       <c r="T23">
-        <f t="shared" ref="T23:T38" si="9">H23*$N$23</f>
+        <f t="shared" ref="T23:T38" si="12">H23*$N$23</f>
         <v>505000883.25648224</v>
       </c>
       <c r="U23">
-        <f t="shared" ref="U23:U38" si="10">I23*$N$23</f>
+        <f t="shared" ref="U23:U38" si="13">I23*$N$23</f>
         <v>483204528.26221436</v>
       </c>
       <c r="V23">
-        <f t="shared" ref="V23:V38" si="11">J23*$N$23</f>
+        <f t="shared" ref="V23:V38" si="14">J23*$N$23</f>
         <v>462801678.17400354</v>
       </c>
       <c r="W23">
-        <f t="shared" ref="W23:W38" si="12">K23*$N$23</f>
+        <f t="shared" ref="W23:W38" si="15">K23*$N$23</f>
         <v>445184389.8111679</v>
       </c>
       <c r="X23">
-        <f t="shared" ref="X23:X38" si="13">L23*$N$23</f>
+        <f t="shared" ref="X23:X38" si="16">L23*$N$23</f>
         <v>427301741.52493525</v>
       </c>
       <c r="Y23">
-        <f t="shared" ref="Y23:Y38" si="14">M23*$N$23</f>
+        <f t="shared" ref="Y23:Y38" si="17">M23*$N$23</f>
         <v>409093154.59490091</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z23">
+        <f>O23*Q$5</f>
+        <v>816941991.36982632</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" ref="AA23:AJ23" si="18">P23*R$5</f>
+        <v>596851565.26507092</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="18"/>
+        <v>432798606.01085591</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="18"/>
+        <v>311025271.61553586</v>
+      </c>
+      <c r="AD23">
+        <f t="shared" si="18"/>
+        <v>223262624.78955558</v>
+      </c>
+      <c r="AE23">
+        <f t="shared" si="18"/>
+        <v>159197339.44705379</v>
+      </c>
+      <c r="AF23">
+        <f t="shared" si="18"/>
+        <v>120921464.06211816</v>
+      </c>
+      <c r="AG23">
+        <f t="shared" si="18"/>
+        <v>91938213.366501421</v>
+      </c>
+      <c r="AH23">
+        <f t="shared" si="18"/>
+        <v>70205283.252173379</v>
+      </c>
+      <c r="AI23">
+        <f t="shared" si="18"/>
+        <v>53492545.493064418</v>
+      </c>
+      <c r="AJ23">
+        <f t="shared" si="18"/>
+        <v>40654586.468024716</v>
+      </c>
+      <c r="AK23">
+        <f>SUM(Z23:AJ23)</f>
+        <v>2917289491.1397805</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5.78</v>
       </c>
@@ -1381,55 +1548,103 @@
         <v>3.3420925930199541</v>
       </c>
       <c r="N24">
-        <f t="shared" ref="N24:N38" si="15">1000*121425.742574257</f>
+        <f t="shared" ref="N24:N38" si="19">1000*121425.742574257</f>
         <v>121425742.574257</v>
       </c>
       <c r="O24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>808429518.06029856</v>
       </c>
       <c r="P24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>744158210.48933935</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>679886902.9183768</v>
       </c>
       <c r="R24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>615615595.34741199</v>
       </c>
       <c r="S24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>556969194.14458036</v>
       </c>
       <c r="T24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>500423499.07706732</v>
       </c>
       <c r="U24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>478907715.61648607</v>
       </c>
       <c r="V24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>458760576.03932273</v>
       </c>
       <c r="W24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>441349276.14225638</v>
       </c>
       <c r="X24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>423829462.70716548</v>
       </c>
       <c r="Y24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>405816074.85937202</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z24">
+        <f t="shared" ref="Z24:Z38" si="20">O24*Q$5</f>
+        <v>808429518.06029856</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" ref="AA24:AA38" si="21">P24*R$5</f>
+        <v>590736779.90631127</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" ref="AB24:AB38" si="22">Q24*S$5</f>
+        <v>428444075.93478304</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" ref="AC24:AC38" si="23">R24*T$5</f>
+        <v>307961065.72256112</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" ref="AD24:AD38" si="24">S24*U$5</f>
+        <v>221180130.13678312</v>
+      </c>
+      <c r="AE24">
+        <f t="shared" ref="AE24:AE38" si="25">T24*V$5</f>
+        <v>157754357.05405116</v>
+      </c>
+      <c r="AF24">
+        <f t="shared" ref="AF24:AF38" si="26">U24*W$5</f>
+        <v>119846190.86923091</v>
+      </c>
+      <c r="AG24">
+        <f t="shared" ref="AG24:AG38" si="27">V24*X$5</f>
+        <v>91135425.200823203</v>
+      </c>
+      <c r="AH24">
+        <f t="shared" ref="AH24:AH38" si="28">W24*Y$5</f>
+        <v>69600488.368093058</v>
+      </c>
+      <c r="AI24">
+        <f t="shared" ref="AI24:AI38" si="29">X24*Z$5</f>
+        <v>53057861.955475062</v>
+      </c>
+      <c r="AJ24">
+        <f t="shared" ref="AJ24:AJ38" si="30">Y24*AA$5</f>
+        <v>40328919.025354847</v>
+      </c>
+      <c r="AK24">
+        <f t="shared" ref="AK24:AK38" si="31">SUM(Z24:AJ24)</f>
+        <v>2888474812.2337656</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6.78</v>
       </c>
@@ -1481,55 +1696,103 @@
         <v>3.3337034176087541</v>
       </c>
       <c r="N25">
+        <f t="shared" si="19"/>
+        <v>121425742.574257</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="7"/>
+        <v>804924843.70030391</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="8"/>
+        <v>741109122.14901519</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="9"/>
+        <v>677190134.85522377</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="10"/>
+        <v>613139358.7735821</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="11"/>
+        <v>554622549.31930959</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="12"/>
+        <v>498880519.70212394</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="13"/>
+        <v>477560838.4357239</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="14"/>
+        <v>457484391.69413644</v>
+      </c>
+      <c r="W25">
         <f t="shared" si="15"/>
-        <v>121425742.574257</v>
-      </c>
-      <c r="O25">
-        <f t="shared" si="4"/>
+        <v>439922065.46458477</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="16"/>
+        <v>422359739.23503238</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="17"/>
+        <v>404797413.00548136</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="20"/>
         <v>804924843.70030391</v>
       </c>
-      <c r="P25">
-        <f t="shared" si="5"/>
-        <v>741109122.14901519</v>
-      </c>
-      <c r="Q25">
-        <f t="shared" si="6"/>
-        <v>677190134.85522377</v>
-      </c>
-      <c r="R25">
-        <f t="shared" si="7"/>
-        <v>613139358.7735821</v>
-      </c>
-      <c r="S25">
-        <f t="shared" si="8"/>
-        <v>554622549.31930959</v>
-      </c>
-      <c r="T25">
-        <f t="shared" si="9"/>
-        <v>498880519.70212394</v>
-      </c>
-      <c r="U25">
-        <f t="shared" si="10"/>
-        <v>477560838.4357239</v>
-      </c>
-      <c r="V25">
-        <f t="shared" si="11"/>
-        <v>457484391.69413644</v>
-      </c>
-      <c r="W25">
-        <f t="shared" si="12"/>
-        <v>439922065.46458477</v>
-      </c>
-      <c r="X25">
-        <f t="shared" si="13"/>
-        <v>422359739.23503238</v>
-      </c>
-      <c r="Y25">
-        <f t="shared" si="14"/>
-        <v>404797413.00548136</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA25">
+        <f t="shared" si="21"/>
+        <v>588316315.2760433</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="22"/>
+        <v>426744654.61063558</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="23"/>
+        <v>306722330.93412954</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" si="24"/>
+        <v>220248245.19001269</v>
+      </c>
+      <c r="AE25">
+        <f t="shared" si="25"/>
+        <v>157267945.60516679</v>
+      </c>
+      <c r="AF25">
+        <f t="shared" si="26"/>
+        <v>119509136.16240656</v>
+      </c>
+      <c r="AG25">
+        <f t="shared" si="27"/>
+        <v>90881903.845659465</v>
+      </c>
+      <c r="AH25">
+        <f t="shared" si="28"/>
+        <v>69375418.19002828</v>
+      </c>
+      <c r="AI25">
+        <f t="shared" si="29"/>
+        <v>52873871.950157665</v>
+      </c>
+      <c r="AJ25">
+        <f t="shared" si="30"/>
+        <v>40227687.127544954</v>
+      </c>
+      <c r="AK25">
+        <f t="shared" si="31"/>
+        <v>2877092352.5920882</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>7.78</v>
       </c>
@@ -1581,55 +1844,103 @@
         <v>3.3440862306857322</v>
       </c>
       <c r="N26">
+        <f t="shared" si="19"/>
+        <v>121425742.574257</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="7"/>
+        <v>808427000.33607721</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="8"/>
+        <v>744155692.76511776</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="9"/>
+        <v>679884385.19415534</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="10"/>
+        <v>615613077.62319076</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="11"/>
+        <v>556966676.4203589</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="12"/>
+        <v>500941258.73867136</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="13"/>
+        <v>479398335.95285839</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="14"/>
+        <v>459227598.05568856</v>
+      </c>
+      <c r="W26">
         <f t="shared" si="15"/>
-        <v>121425742.574257</v>
-      </c>
-      <c r="O26">
-        <f t="shared" si="4"/>
+        <v>441673072.34957939</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="16"/>
+        <v>423865084.39935076</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="17"/>
+        <v>406058153.79336315</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="20"/>
         <v>808427000.33607721</v>
       </c>
-      <c r="P26">
-        <f t="shared" si="5"/>
-        <v>744155692.76511776</v>
-      </c>
-      <c r="Q26">
-        <f t="shared" si="6"/>
-        <v>679884385.19415534</v>
-      </c>
-      <c r="R26">
-        <f t="shared" si="7"/>
-        <v>615613077.62319076</v>
-      </c>
-      <c r="S26">
-        <f t="shared" si="8"/>
-        <v>556966676.4203589</v>
-      </c>
-      <c r="T26">
-        <f t="shared" si="9"/>
-        <v>500941258.73867136</v>
-      </c>
-      <c r="U26">
-        <f t="shared" si="10"/>
-        <v>479398335.95285839</v>
-      </c>
-      <c r="V26">
-        <f t="shared" si="11"/>
-        <v>459227598.05568856</v>
-      </c>
-      <c r="W26">
-        <f t="shared" si="12"/>
-        <v>441673072.34957939</v>
-      </c>
-      <c r="X26">
-        <f t="shared" si="13"/>
-        <v>423865084.39935076</v>
-      </c>
-      <c r="Y26">
-        <f t="shared" si="14"/>
-        <v>406058153.79336315</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA26">
+        <f t="shared" si="21"/>
+        <v>590734781.25565028</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="22"/>
+        <v>428442489.3414498</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="23"/>
+        <v>307959806.23361993</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="24"/>
+        <v>221179130.31385431</v>
+      </c>
+      <c r="AE26">
+        <f t="shared" si="25"/>
+        <v>157917576.49253777</v>
+      </c>
+      <c r="AF26">
+        <f t="shared" si="26"/>
+        <v>119968968.13207269</v>
+      </c>
+      <c r="AG26">
+        <f t="shared" si="27"/>
+        <v>91228201.808628306</v>
+      </c>
+      <c r="AH26">
+        <f t="shared" si="28"/>
+        <v>69651550.815410078</v>
+      </c>
+      <c r="AI26">
+        <f t="shared" si="29"/>
+        <v>53062321.321783654</v>
+      </c>
+      <c r="AJ26">
+        <f t="shared" si="30"/>
+        <v>40352976.184081383</v>
+      </c>
+      <c r="AK26">
+        <f t="shared" si="31"/>
+        <v>2888924802.2351651</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4.78</v>
       </c>
@@ -1681,55 +1992,103 @@
         <v>3.3727085839829001</v>
       </c>
       <c r="N27">
+        <f t="shared" si="19"/>
+        <v>121425742.574257</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="7"/>
+        <v>819651237.89887595</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="8"/>
+        <v>754216167.65063</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="9"/>
+        <v>688923876.24230671</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="10"/>
+        <v>623431647.56869912</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="11"/>
+        <v>563664770.01979828</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="12"/>
+        <v>506001523.04033697</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="13"/>
+        <v>484086145.65220839</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="14"/>
+        <v>463563951.26057076</v>
+      </c>
+      <c r="W27">
         <f t="shared" si="15"/>
-        <v>121425742.574257</v>
-      </c>
-      <c r="O27">
-        <f t="shared" si="4"/>
+        <v>445827036.79686016</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="16"/>
+        <v>427863720.83197415</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="17"/>
+        <v>409533644.29669446</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="20"/>
         <v>819651237.89887595</v>
       </c>
-      <c r="P27">
-        <f t="shared" si="5"/>
-        <v>754216167.65063</v>
-      </c>
-      <c r="Q27">
-        <f t="shared" si="6"/>
-        <v>688923876.24230671</v>
-      </c>
-      <c r="R27">
-        <f t="shared" si="7"/>
-        <v>623431647.56869912</v>
-      </c>
-      <c r="S27">
-        <f t="shared" si="8"/>
-        <v>563664770.01979828</v>
-      </c>
-      <c r="T27">
-        <f t="shared" si="9"/>
-        <v>506001523.04033697</v>
-      </c>
-      <c r="U27">
-        <f t="shared" si="10"/>
-        <v>484086145.65220839</v>
-      </c>
-      <c r="V27">
-        <f t="shared" si="11"/>
-        <v>463563951.26057076</v>
-      </c>
-      <c r="W27">
-        <f t="shared" si="12"/>
-        <v>445827036.79686016</v>
-      </c>
-      <c r="X27">
-        <f t="shared" si="13"/>
-        <v>427863720.83197415</v>
-      </c>
-      <c r="Y27">
-        <f t="shared" si="14"/>
-        <v>409533644.29669446</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA27">
+        <f t="shared" si="21"/>
+        <v>598721110.5797435</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="22"/>
+        <v>434138902.04247648</v>
+      </c>
+      <c r="AC27">
+        <f t="shared" si="23"/>
+        <v>311871037.77330554</v>
+      </c>
+      <c r="AD27">
+        <f t="shared" si="24"/>
+        <v>223839035.43889034</v>
+      </c>
+      <c r="AE27">
+        <f t="shared" si="25"/>
+        <v>159512782.83857286</v>
+      </c>
+      <c r="AF27">
+        <f t="shared" si="26"/>
+        <v>121142087.95801602</v>
+      </c>
+      <c r="AG27">
+        <f t="shared" si="27"/>
+        <v>92089643.296386003</v>
+      </c>
+      <c r="AH27">
+        <f t="shared" si="28"/>
+        <v>70306628.255938709</v>
+      </c>
+      <c r="AI27">
+        <f t="shared" si="29"/>
+        <v>53562897.894486085</v>
+      </c>
+      <c r="AJ27">
+        <f t="shared" si="30"/>
+        <v>40698361.159604616</v>
+      </c>
+      <c r="AK27">
+        <f t="shared" si="31"/>
+        <v>2925533725.1362963</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5.78</v>
       </c>
@@ -1781,55 +2140,103 @@
         <v>3.364724648554517</v>
       </c>
       <c r="N28">
+        <f t="shared" si="19"/>
+        <v>121425742.574257</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="7"/>
+        <v>816368834.19941759</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="8"/>
+        <v>751332191.54548585</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="9"/>
+        <v>686295548.89155138</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="10"/>
+        <v>621258906.23761427</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="11"/>
+        <v>561798765.99387324</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="12"/>
+        <v>504598059.91609514</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="13"/>
+        <v>482811573.76736599</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="14"/>
+        <v>462417304.88643032</v>
+      </c>
+      <c r="W28">
         <f t="shared" si="15"/>
-        <v>121425742.574257</v>
-      </c>
-      <c r="O28">
-        <f t="shared" si="4"/>
+        <v>444609932.64863896</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="16"/>
+        <v>426706715.79714507</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="17"/>
+        <v>408564189.00863814</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="20"/>
         <v>816368834.19941759</v>
       </c>
-      <c r="P28">
-        <f t="shared" si="5"/>
-        <v>751332191.54548585</v>
-      </c>
-      <c r="Q28">
-        <f t="shared" si="6"/>
-        <v>686295548.89155138</v>
-      </c>
-      <c r="R28">
-        <f t="shared" si="7"/>
-        <v>621258906.23761427</v>
-      </c>
-      <c r="S28">
-        <f t="shared" si="8"/>
-        <v>561798765.99387324</v>
-      </c>
-      <c r="T28">
-        <f t="shared" si="9"/>
-        <v>504598059.91609514</v>
-      </c>
-      <c r="U28">
-        <f t="shared" si="10"/>
-        <v>482811573.76736599</v>
-      </c>
-      <c r="V28">
-        <f t="shared" si="11"/>
-        <v>462417304.88643032</v>
-      </c>
-      <c r="W28">
-        <f t="shared" si="12"/>
-        <v>444609932.64863896</v>
-      </c>
-      <c r="X28">
-        <f t="shared" si="13"/>
-        <v>426706715.79714507</v>
-      </c>
-      <c r="Y28">
-        <f t="shared" si="14"/>
-        <v>408564189.00863814</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA28">
+        <f t="shared" si="21"/>
+        <v>596431717.36514831</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="22"/>
+        <v>432482609.97652435</v>
+      </c>
+      <c r="AC28">
+        <f t="shared" si="23"/>
+        <v>310784126.16658652</v>
+      </c>
+      <c r="AD28">
+        <f t="shared" si="24"/>
+        <v>223098019.56650668</v>
+      </c>
+      <c r="AE28">
+        <f t="shared" si="25"/>
+        <v>159070352.73043013</v>
+      </c>
+      <c r="AF28">
+        <f t="shared" si="26"/>
+        <v>120823127.58129555</v>
+      </c>
+      <c r="AG28">
+        <f t="shared" si="27"/>
+        <v>91861855.403702497</v>
+      </c>
+      <c r="AH28">
+        <f t="shared" si="28"/>
+        <v>70114691.738331914</v>
+      </c>
+      <c r="AI28">
+        <f t="shared" si="29"/>
+        <v>53418056.115371346</v>
+      </c>
+      <c r="AJ28">
+        <f t="shared" si="30"/>
+        <v>40602019.279051274</v>
+      </c>
+      <c r="AK28">
+        <f t="shared" si="31"/>
+        <v>2915055410.122366</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>6.78</v>
       </c>
@@ -1881,55 +2288,103 @@
         <v>3.3671715031676221</v>
       </c>
       <c r="N29">
+        <f t="shared" si="19"/>
+        <v>121425742.574257</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="7"/>
+        <v>816350611.31524539</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="8"/>
+        <v>751313968.66131389</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="9"/>
+        <v>686277326.00737917</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="10"/>
+        <v>621240683.35344219</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="11"/>
+        <v>561830761.20720899</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="12"/>
+        <v>504627134.976089</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="13"/>
+        <v>482838181.61597538</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="14"/>
+        <v>462441767.43322086</v>
+      </c>
+      <c r="W29">
         <f t="shared" si="15"/>
-        <v>121425742.574257</v>
-      </c>
-      <c r="O29">
-        <f t="shared" si="4"/>
+        <v>444830069.58349645</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="16"/>
+        <v>427069887.07704002</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="17"/>
+        <v>408861300.14700568</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="20"/>
         <v>816350611.31524539</v>
       </c>
-      <c r="P29">
-        <f t="shared" si="5"/>
-        <v>751313968.66131389</v>
-      </c>
-      <c r="Q29">
-        <f t="shared" si="6"/>
-        <v>686277326.00737917</v>
-      </c>
-      <c r="R29">
-        <f t="shared" si="7"/>
-        <v>621240683.35344219</v>
-      </c>
-      <c r="S29">
-        <f t="shared" si="8"/>
-        <v>561830761.20720899</v>
-      </c>
-      <c r="T29">
-        <f t="shared" si="9"/>
-        <v>504627134.976089</v>
-      </c>
-      <c r="U29">
-        <f t="shared" si="10"/>
-        <v>482838181.61597538</v>
-      </c>
-      <c r="V29">
-        <f t="shared" si="11"/>
-        <v>462441767.43322086</v>
-      </c>
-      <c r="W29">
-        <f t="shared" si="12"/>
-        <v>444830069.58349645</v>
-      </c>
-      <c r="X29">
-        <f t="shared" si="13"/>
-        <v>427069887.07704002</v>
-      </c>
-      <c r="Y29">
-        <f t="shared" si="14"/>
-        <v>408861300.14700568</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA29">
+        <f t="shared" si="21"/>
+        <v>596417251.45216823</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="22"/>
+        <v>432471126.46840483</v>
+      </c>
+      <c r="AC29">
+        <f t="shared" si="23"/>
+        <v>310775010.18760127</v>
+      </c>
+      <c r="AD29">
+        <f t="shared" si="24"/>
+        <v>223110725.30593312</v>
+      </c>
+      <c r="AE29">
+        <f t="shared" si="25"/>
+        <v>159079518.40191457</v>
+      </c>
+      <c r="AF29">
+        <f t="shared" si="26"/>
+        <v>120829786.16957691</v>
+      </c>
+      <c r="AG29">
+        <f t="shared" si="27"/>
+        <v>91866715.029223278</v>
+      </c>
+      <c r="AH29">
+        <f t="shared" si="28"/>
+        <v>70149407.187075496</v>
+      </c>
+      <c r="AI29">
+        <f t="shared" si="29"/>
+        <v>53463520.372414209</v>
+      </c>
+      <c r="AJ29">
+        <f t="shared" si="30"/>
+        <v>40631545.39145308</v>
+      </c>
+      <c r="AK29">
+        <f t="shared" si="31"/>
+        <v>2915145217.2810106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>7.78</v>
       </c>
@@ -1981,55 +2436,103 @@
         <v>3.3722926614760009</v>
       </c>
       <c r="N30">
+        <f t="shared" si="19"/>
+        <v>121425742.574257</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="7"/>
+        <v>819672639.32095945</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="8"/>
+        <v>754228715.12617326</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="9"/>
+        <v>688873372.54305327</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="10"/>
+        <v>623381143.86944568</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="11"/>
+        <v>563614266.32054472</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="12"/>
+        <v>506187509.06191337</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="13"/>
+        <v>484259795.61686116</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="14"/>
+        <v>463726874.7161296</v>
+      </c>
+      <c r="W30">
         <f t="shared" si="15"/>
-        <v>121425742.574257</v>
-      </c>
-      <c r="O30">
-        <f t="shared" si="4"/>
+        <v>445980642.73056662</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="16"/>
+        <v>427970063.51809299</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="17"/>
+        <v>409483140.5974409</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="20"/>
         <v>819672639.32095945</v>
       </c>
-      <c r="P30">
-        <f t="shared" si="5"/>
-        <v>754228715.12617326</v>
-      </c>
-      <c r="Q30">
-        <f t="shared" si="6"/>
-        <v>688873372.54305327</v>
-      </c>
-      <c r="R30">
-        <f t="shared" si="7"/>
-        <v>623381143.86944568</v>
-      </c>
-      <c r="S30">
-        <f t="shared" si="8"/>
-        <v>563614266.32054472</v>
-      </c>
-      <c r="T30">
-        <f t="shared" si="9"/>
-        <v>506187509.06191337</v>
-      </c>
-      <c r="U30">
-        <f t="shared" si="10"/>
-        <v>484259795.61686116</v>
-      </c>
-      <c r="V30">
-        <f t="shared" si="11"/>
-        <v>463726874.7161296</v>
-      </c>
-      <c r="W30">
-        <f t="shared" si="12"/>
-        <v>445980642.73056662</v>
-      </c>
-      <c r="X30">
-        <f t="shared" si="13"/>
-        <v>427970063.51809299</v>
-      </c>
-      <c r="Y30">
-        <f t="shared" si="14"/>
-        <v>409483140.5974409</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA30">
+        <f t="shared" si="21"/>
+        <v>598731071.1703732</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="22"/>
+        <v>434107076.14516175</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" si="23"/>
+        <v>311845773.34991771</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" si="24"/>
+        <v>223818979.72505423</v>
+      </c>
+      <c r="AE30">
+        <f t="shared" si="25"/>
+        <v>159571413.38911444</v>
+      </c>
+      <c r="AF30">
+        <f t="shared" si="26"/>
+        <v>121185543.69307643</v>
+      </c>
+      <c r="AG30">
+        <f t="shared" si="27"/>
+        <v>92122008.977251023</v>
+      </c>
+      <c r="AH30">
+        <f t="shared" si="28"/>
+        <v>70330851.809890479</v>
+      </c>
+      <c r="AI30">
+        <f t="shared" si="29"/>
+        <v>53576210.597015135</v>
+      </c>
+      <c r="AJ30">
+        <f t="shared" si="30"/>
+        <v>40693342.236688897</v>
+      </c>
+      <c r="AK30">
+        <f t="shared" si="31"/>
+        <v>2925654910.4145026</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4.78</v>
       </c>
@@ -2081,55 +2584,103 @@
         <v>3.3765644057216142</v>
       </c>
       <c r="N31">
+        <f t="shared" si="19"/>
+        <v>121425742.574257</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="7"/>
+        <v>822789096.67730165</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="8"/>
+        <v>756925002.24900627</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="9"/>
+        <v>691202265.44013906</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="10"/>
+        <v>625418463.65212464</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="11"/>
+        <v>565196000.08355331</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="12"/>
+        <v>507597444.47024745</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="13"/>
+        <v>485533438.15164131</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="14"/>
+        <v>464866155.83475178</v>
+      </c>
+      <c r="W31">
         <f t="shared" si="15"/>
-        <v>121425742.574257</v>
-      </c>
-      <c r="O31">
-        <f t="shared" si="4"/>
+        <v>446864525.95675284</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="16"/>
+        <v>428610252.84044927</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="17"/>
+        <v>410001840.31455177</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="20"/>
         <v>822789096.67730165</v>
       </c>
-      <c r="P31">
-        <f t="shared" si="5"/>
-        <v>756925002.24900627</v>
-      </c>
-      <c r="Q31">
-        <f t="shared" si="6"/>
-        <v>691202265.44013906</v>
-      </c>
-      <c r="R31">
-        <f t="shared" si="7"/>
-        <v>625418463.65212464</v>
-      </c>
-      <c r="S31">
-        <f t="shared" si="8"/>
-        <v>565196000.08355331</v>
-      </c>
-      <c r="T31">
-        <f t="shared" si="9"/>
-        <v>507597444.47024745</v>
-      </c>
-      <c r="U31">
-        <f t="shared" si="10"/>
-        <v>485533438.15164131</v>
-      </c>
-      <c r="V31">
-        <f t="shared" si="11"/>
-        <v>464866155.83475178</v>
-      </c>
-      <c r="W31">
-        <f t="shared" si="12"/>
-        <v>446864525.95675284</v>
-      </c>
-      <c r="X31">
-        <f t="shared" si="13"/>
-        <v>428610252.84044927</v>
-      </c>
-      <c r="Y31">
-        <f t="shared" si="14"/>
-        <v>410001840.31455177</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA31">
+        <f t="shared" si="21"/>
+        <v>600871470.8195256</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="22"/>
+        <v>435574673.71316898</v>
+      </c>
+      <c r="AC31">
+        <f t="shared" si="23"/>
+        <v>312864940.4669193</v>
+      </c>
+      <c r="AD31">
+        <f t="shared" si="24"/>
+        <v>224447107.96485984</v>
+      </c>
+      <c r="AE31">
+        <f t="shared" si="25"/>
+        <v>160015883.83112943</v>
+      </c>
+      <c r="AF31">
+        <f t="shared" si="26"/>
+        <v>121504271.50084612</v>
+      </c>
+      <c r="AG31">
+        <f t="shared" si="27"/>
+        <v>92348333.719593316</v>
+      </c>
+      <c r="AH31">
+        <f t="shared" si="28"/>
+        <v>70470239.608915895</v>
+      </c>
+      <c r="AI31">
+        <f t="shared" si="29"/>
+        <v>53656353.861416787</v>
+      </c>
+      <c r="AJ31">
+        <f t="shared" si="30"/>
+        <v>40744889.230969712</v>
+      </c>
+      <c r="AK31">
+        <f t="shared" si="31"/>
+        <v>2935287261.3946471</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>5.78</v>
       </c>
@@ -2181,55 +2732,103 @@
         <v>3.3709222950620679</v>
       </c>
       <c r="N32">
+        <f t="shared" si="19"/>
+        <v>121425742.574257</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="7"/>
+        <v>819691432.1308496</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="8"/>
+        <v>754199203.45724761</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="9"/>
+        <v>688706974.78364241</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="10"/>
+        <v>623214746.11003494</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="11"/>
+        <v>563447868.5611341</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="12"/>
+        <v>506543666.57458502</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="13"/>
+        <v>484541705.18526286</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="14"/>
+        <v>463987331.26634377</v>
+      </c>
+      <c r="W32">
         <f t="shared" si="15"/>
-        <v>121425742.574257</v>
-      </c>
-      <c r="O32">
-        <f t="shared" si="4"/>
+        <v>445936449.26974028</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="16"/>
+        <v>427803665.75868237</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="17"/>
+        <v>409316742.83803028</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" si="20"/>
         <v>819691432.1308496</v>
       </c>
-      <c r="P32">
-        <f t="shared" si="5"/>
-        <v>754199203.45724761</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" si="6"/>
-        <v>688706974.78364241</v>
-      </c>
-      <c r="R32">
-        <f t="shared" si="7"/>
-        <v>623214746.11003494</v>
-      </c>
-      <c r="S32">
-        <f t="shared" si="8"/>
-        <v>563447868.5611341</v>
-      </c>
-      <c r="T32">
-        <f t="shared" si="9"/>
-        <v>506543666.57458502</v>
-      </c>
-      <c r="U32">
-        <f t="shared" si="10"/>
-        <v>484541705.18526286</v>
-      </c>
-      <c r="V32">
-        <f t="shared" si="11"/>
-        <v>463987331.26634377</v>
-      </c>
-      <c r="W32">
-        <f t="shared" si="12"/>
-        <v>445936449.26974028</v>
-      </c>
-      <c r="X32">
-        <f t="shared" si="13"/>
-        <v>427803665.75868237</v>
-      </c>
-      <c r="Y32">
-        <f t="shared" si="14"/>
-        <v>409316742.83803028</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA32">
+        <f t="shared" si="21"/>
+        <v>598707643.85609365</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" si="22"/>
+        <v>434002217.33119959</v>
+      </c>
+      <c r="AC32">
+        <f t="shared" si="23"/>
+        <v>311762533.04263949</v>
+      </c>
+      <c r="AD32">
+        <f t="shared" si="24"/>
+        <v>223752900.88538441</v>
+      </c>
+      <c r="AE32">
+        <f t="shared" si="25"/>
+        <v>159683689.09064546</v>
+      </c>
+      <c r="AF32">
+        <f t="shared" si="26"/>
+        <v>121256091.28886749</v>
+      </c>
+      <c r="AG32">
+        <f t="shared" si="27"/>
+        <v>92173750.167950183</v>
+      </c>
+      <c r="AH32">
+        <f t="shared" si="28"/>
+        <v>70323882.53040491</v>
+      </c>
+      <c r="AI32">
+        <f t="shared" si="29"/>
+        <v>53555379.790935457</v>
+      </c>
+      <c r="AJ32">
+        <f t="shared" si="30"/>
+        <v>40676806.071216404</v>
+      </c>
+      <c r="AK32">
+        <f t="shared" si="31"/>
+        <v>2925586326.1861873</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>6.78</v>
       </c>
@@ -2281,55 +2880,103 @@
         <v>3.3659225342470092</v>
       </c>
       <c r="N33">
+        <f t="shared" si="19"/>
+        <v>121425742.574257</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="7"/>
+        <v>819038644.93963027</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="8"/>
+        <v>753647844.42408609</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="9"/>
+        <v>688391670.2127589</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="10"/>
+        <v>623178580.21613908</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="11"/>
+        <v>563262853.95272768</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="12"/>
+        <v>505606561.85527897</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="13"/>
+        <v>483698586.10130459</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="14"/>
+        <v>463061150.04493827</v>
+      </c>
+      <c r="W33">
         <f t="shared" si="15"/>
-        <v>121425742.574257</v>
-      </c>
-      <c r="O33">
-        <f t="shared" si="4"/>
+        <v>445049856.1391263</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="16"/>
+        <v>427038562.23331362</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="17"/>
+        <v>408709643.1683681</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="20"/>
         <v>819038644.93963027</v>
       </c>
-      <c r="P33">
-        <f t="shared" si="5"/>
-        <v>753647844.42408609</v>
-      </c>
-      <c r="Q33">
-        <f t="shared" si="6"/>
-        <v>688391670.2127589</v>
-      </c>
-      <c r="R33">
-        <f t="shared" si="7"/>
-        <v>623178580.21613908</v>
-      </c>
-      <c r="S33">
-        <f t="shared" si="8"/>
-        <v>563262853.95272768</v>
-      </c>
-      <c r="T33">
-        <f t="shared" si="9"/>
-        <v>505606561.85527897</v>
-      </c>
-      <c r="U33">
-        <f t="shared" si="10"/>
-        <v>483698586.10130459</v>
-      </c>
-      <c r="V33">
-        <f t="shared" si="11"/>
-        <v>463061150.04493827</v>
-      </c>
-      <c r="W33">
-        <f t="shared" si="12"/>
-        <v>445049856.1391263</v>
-      </c>
-      <c r="X33">
-        <f t="shared" si="13"/>
-        <v>427038562.23331362</v>
-      </c>
-      <c r="Y33">
-        <f t="shared" si="14"/>
-        <v>408709643.1683681</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA33">
+        <f t="shared" si="21"/>
+        <v>598269957.27919233</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" si="22"/>
+        <v>433803521.9674114</v>
+      </c>
+      <c r="AC33">
+        <f t="shared" si="23"/>
+        <v>311744441.0915727</v>
+      </c>
+      <c r="AD33">
+        <f t="shared" si="24"/>
+        <v>223679429.0388357</v>
+      </c>
+      <c r="AE33">
+        <f t="shared" si="25"/>
+        <v>159388274.60119984</v>
+      </c>
+      <c r="AF33">
+        <f t="shared" si="26"/>
+        <v>121045101.55667768</v>
+      </c>
+      <c r="AG33">
+        <f t="shared" si="27"/>
+        <v>91989758.945002183</v>
+      </c>
+      <c r="AH33">
+        <f t="shared" si="28"/>
+        <v>70184067.381247088</v>
+      </c>
+      <c r="AI33">
+        <f t="shared" si="29"/>
+        <v>53459598.914893076</v>
+      </c>
+      <c r="AJ33">
+        <f t="shared" si="30"/>
+        <v>40616474.125453517</v>
+      </c>
+      <c r="AK33">
+        <f t="shared" si="31"/>
+        <v>2923219269.8411155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>7.78</v>
       </c>
@@ -2381,55 +3028,103 @@
         <v>3.3808682215128578</v>
       </c>
       <c r="N34">
+        <f t="shared" si="19"/>
+        <v>121425742.574257</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="7"/>
+        <v>825118492.01017964</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="8"/>
+        <v>758931620.76031852</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="9"/>
+        <v>692835622.2658031</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="10"/>
+        <v>626783073.89872372</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="11"/>
+        <v>566467034.71838927</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="12"/>
+        <v>508207209.13900357</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="13"/>
+        <v>486048852.54038393</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="14"/>
+        <v>465283678.93825549</v>
+      </c>
+      <c r="W34">
         <f t="shared" si="15"/>
-        <v>121425742.574257</v>
-      </c>
-      <c r="O34">
-        <f t="shared" si="4"/>
+        <v>447303785.26405394</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="16"/>
+        <v>429211908.337897</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="17"/>
+        <v>410524434.34290636</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" si="20"/>
         <v>825118492.01017964</v>
       </c>
-      <c r="P34">
-        <f t="shared" si="5"/>
-        <v>758931620.76031852</v>
-      </c>
-      <c r="Q34">
-        <f t="shared" si="6"/>
-        <v>692835622.2658031</v>
-      </c>
-      <c r="R34">
-        <f t="shared" si="7"/>
-        <v>626783073.89872372</v>
-      </c>
-      <c r="S34">
-        <f t="shared" si="8"/>
-        <v>566467034.71838927</v>
-      </c>
-      <c r="T34">
-        <f t="shared" si="9"/>
-        <v>508207209.13900357</v>
-      </c>
-      <c r="U34">
-        <f t="shared" si="10"/>
-        <v>486048852.54038393</v>
-      </c>
-      <c r="V34">
-        <f t="shared" si="11"/>
-        <v>465283678.93825549</v>
-      </c>
-      <c r="W34">
-        <f t="shared" si="12"/>
-        <v>447303785.26405394</v>
-      </c>
-      <c r="X34">
-        <f t="shared" si="13"/>
-        <v>429211908.337897</v>
-      </c>
-      <c r="Y34">
-        <f t="shared" si="14"/>
-        <v>410524434.34290636</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA34">
+        <f t="shared" si="21"/>
+        <v>602464389.28923309</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" si="22"/>
+        <v>436603965.5745647</v>
+      </c>
+      <c r="AC34">
+        <f t="shared" si="23"/>
+        <v>313547585.33331752</v>
+      </c>
+      <c r="AD34">
+        <f t="shared" si="24"/>
+        <v>224951853.30606878</v>
+      </c>
+      <c r="AE34">
+        <f t="shared" si="25"/>
+        <v>160208107.08493608</v>
+      </c>
+      <c r="AF34">
+        <f t="shared" si="26"/>
+        <v>121633253.45122142</v>
+      </c>
+      <c r="AG34">
+        <f t="shared" si="27"/>
+        <v>92431277.083858594</v>
+      </c>
+      <c r="AH34">
+        <f t="shared" si="28"/>
+        <v>70539510.510582745</v>
+      </c>
+      <c r="AI34">
+        <f t="shared" si="29"/>
+        <v>53731673.198879622</v>
+      </c>
+      <c r="AJ34">
+        <f t="shared" si="30"/>
+        <v>40796823.231514044</v>
+      </c>
+      <c r="AK34">
+        <f t="shared" si="31"/>
+        <v>2942026930.0743566</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4.78</v>
       </c>
@@ -2481,55 +3176,103 @@
         <v>3.4232600997819609</v>
       </c>
       <c r="N35">
+        <f t="shared" si="19"/>
+        <v>121425742.574257</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="7"/>
+        <v>839449424.94478416</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="8"/>
+        <v>771970940.08556676</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="9"/>
+        <v>704492455.22634673</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="10"/>
+        <v>637013970.36712396</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="11"/>
+        <v>575363095.52875268</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="12"/>
+        <v>516018961.36206836</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="13"/>
+        <v>493425885.72409034</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="14"/>
+        <v>472110708.30760217</v>
+      </c>
+      <c r="W35">
         <f t="shared" si="15"/>
-        <v>121425742.574257</v>
-      </c>
-      <c r="O35">
-        <f t="shared" si="4"/>
+        <v>453565947.86500621</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="16"/>
+        <v>434682824.68945956</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="17"/>
+        <v>415671899.64084971</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" si="20"/>
         <v>839449424.94478416</v>
       </c>
-      <c r="P35">
-        <f t="shared" si="5"/>
-        <v>771970940.08556676</v>
-      </c>
-      <c r="Q35">
-        <f t="shared" si="6"/>
-        <v>704492455.22634673</v>
-      </c>
-      <c r="R35">
-        <f t="shared" si="7"/>
-        <v>637013970.36712396</v>
-      </c>
-      <c r="S35">
-        <f t="shared" si="8"/>
-        <v>575363095.52875268</v>
-      </c>
-      <c r="T35">
-        <f t="shared" si="9"/>
-        <v>516018961.36206836</v>
-      </c>
-      <c r="U35">
-        <f t="shared" si="10"/>
-        <v>493425885.72409034</v>
-      </c>
-      <c r="V35">
-        <f t="shared" si="11"/>
-        <v>472110708.30760217</v>
-      </c>
-      <c r="W35">
-        <f t="shared" si="12"/>
-        <v>453565947.86500621</v>
-      </c>
-      <c r="X35">
-        <f t="shared" si="13"/>
-        <v>434682824.68945956</v>
-      </c>
-      <c r="Y35">
-        <f t="shared" si="14"/>
-        <v>415671899.64084971</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA35">
+        <f t="shared" si="21"/>
+        <v>612815421.37057257</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="22"/>
+        <v>443949747.65194911</v>
+      </c>
+      <c r="AC35">
+        <f t="shared" si="23"/>
+        <v>318665580.72446364</v>
+      </c>
+      <c r="AD35">
+        <f t="shared" si="24"/>
+        <v>228484601.45161548</v>
+      </c>
+      <c r="AE35">
+        <f t="shared" si="25"/>
+        <v>162670697.1745061</v>
+      </c>
+      <c r="AF35">
+        <f t="shared" si="26"/>
+        <v>123479348.84320115</v>
+      </c>
+      <c r="AG35">
+        <f t="shared" si="27"/>
+        <v>93787505.707088396</v>
+      </c>
+      <c r="AH35">
+        <f t="shared" si="28"/>
+        <v>71527049.402855009</v>
+      </c>
+      <c r="AI35">
+        <f t="shared" si="29"/>
+        <v>54416559.810341358</v>
+      </c>
+      <c r="AJ35">
+        <f t="shared" si="30"/>
+        <v>41308364.602216326</v>
+      </c>
+      <c r="AK35">
+        <f t="shared" si="31"/>
+        <v>2990554301.6835933</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5.78</v>
       </c>
@@ -2581,55 +3324,103 @@
         <v>3.5746407887952421</v>
       </c>
       <c r="N36">
+        <f t="shared" si="19"/>
+        <v>121425742.574257</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="7"/>
+        <v>906535334.40910769</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="8"/>
+        <v>832062953.70214021</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="9"/>
+        <v>757637692.20164597</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="10"/>
+        <v>683036405.3622719</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="11"/>
+        <v>614366172.63703644</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="12"/>
+        <v>547595183.67702532</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="13"/>
+        <v>522465282.02107018</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="14"/>
+        <v>498483782.15535361</v>
+      </c>
+      <c r="W36">
         <f t="shared" si="15"/>
-        <v>121425742.574257</v>
-      </c>
-      <c r="O36">
-        <f t="shared" si="4"/>
+        <v>477218742.28155547</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="16"/>
+        <v>455953702.40775627</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="17"/>
+        <v>434053412.21569008</v>
+      </c>
+      <c r="Z36">
+        <f t="shared" si="20"/>
         <v>906535334.40910769</v>
       </c>
-      <c r="P36">
-        <f t="shared" si="5"/>
-        <v>832062953.70214021</v>
-      </c>
-      <c r="Q36">
-        <f t="shared" si="6"/>
-        <v>757637692.20164597</v>
-      </c>
-      <c r="R36">
-        <f t="shared" si="7"/>
-        <v>683036405.3622719</v>
-      </c>
-      <c r="S36">
-        <f t="shared" si="8"/>
-        <v>614366172.63703644</v>
-      </c>
-      <c r="T36">
-        <f t="shared" si="9"/>
-        <v>547595183.67702532</v>
-      </c>
-      <c r="U36">
-        <f t="shared" si="10"/>
-        <v>522465282.02107018</v>
-      </c>
-      <c r="V36">
-        <f t="shared" si="11"/>
-        <v>498483782.15535361</v>
-      </c>
-      <c r="W36">
-        <f t="shared" si="12"/>
-        <v>477218742.28155547</v>
-      </c>
-      <c r="X36">
-        <f t="shared" si="13"/>
-        <v>455953702.40775627</v>
-      </c>
-      <c r="Y36">
-        <f t="shared" si="14"/>
-        <v>434053412.21569008</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA36">
+        <f t="shared" si="21"/>
+        <v>660518399.20723152</v>
+      </c>
+      <c r="AB36">
+        <f t="shared" si="22"/>
+        <v>477440261.80728763</v>
+      </c>
+      <c r="AC36">
+        <f t="shared" si="23"/>
+        <v>341688256.29566109</v>
+      </c>
+      <c r="AD36">
+        <f t="shared" si="24"/>
+        <v>243973260.00084549</v>
+      </c>
+      <c r="AE36">
+        <f t="shared" si="25"/>
+        <v>172624839.33345512</v>
+      </c>
+      <c r="AF36">
+        <f t="shared" si="26"/>
+        <v>130746429.57263777</v>
+      </c>
+      <c r="AG36">
+        <f t="shared" si="27"/>
+        <v>99026668.408727154</v>
+      </c>
+      <c r="AH36">
+        <f t="shared" si="28"/>
+        <v>75257079.407778621</v>
+      </c>
+      <c r="AI36">
+        <f t="shared" si="29"/>
+        <v>57079393.315214865</v>
+      </c>
+      <c r="AJ36">
+        <f t="shared" si="30"/>
+        <v>43135070.290134586</v>
+      </c>
+      <c r="AK36">
+        <f t="shared" si="31"/>
+        <v>3208024992.0480809</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>6.78</v>
       </c>
@@ -2681,55 +3472,103 @@
         <v>3.7444247480576629</v>
       </c>
       <c r="N37">
+        <f t="shared" si="19"/>
+        <v>121425742.574257</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="7"/>
+        <v>985728674.98520768</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="8"/>
+        <v>902010418.02253437</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="9"/>
+        <v>819357155.00498772</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="10"/>
+        <v>735606435.00097501</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="11"/>
+        <v>658141555.41563141</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="12"/>
+        <v>582048259.55976582</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="13"/>
+        <v>553879152.9290427</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="14"/>
+        <v>527223125.33670193</v>
+      </c>
+      <c r="W37">
         <f t="shared" si="15"/>
-        <v>121425742.574257</v>
-      </c>
-      <c r="O37">
-        <f t="shared" si="4"/>
+        <v>503553884.45467639</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="16"/>
+        <v>479272066.15500408</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="17"/>
+        <v>454669555.54632688</v>
+      </c>
+      <c r="Z37">
+        <f t="shared" si="20"/>
         <v>985728674.98520768</v>
       </c>
-      <c r="P37">
-        <f t="shared" si="5"/>
-        <v>902010418.02253437</v>
-      </c>
-      <c r="Q37">
-        <f t="shared" si="6"/>
-        <v>819357155.00498772</v>
-      </c>
-      <c r="R37">
-        <f t="shared" si="7"/>
-        <v>735606435.00097501</v>
-      </c>
-      <c r="S37">
-        <f t="shared" si="8"/>
-        <v>658141555.41563141</v>
-      </c>
-      <c r="T37">
-        <f t="shared" si="9"/>
-        <v>582048259.55976582</v>
-      </c>
-      <c r="U37">
-        <f t="shared" si="10"/>
-        <v>553879152.9290427</v>
-      </c>
-      <c r="V37">
-        <f t="shared" si="11"/>
-        <v>527223125.33670193</v>
-      </c>
-      <c r="W37">
-        <f t="shared" si="12"/>
-        <v>503553884.45467639</v>
-      </c>
-      <c r="X37">
-        <f t="shared" si="13"/>
-        <v>479272066.15500408</v>
-      </c>
-      <c r="Y37">
-        <f t="shared" si="14"/>
-        <v>454669555.54632688</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA37">
+        <f t="shared" si="21"/>
+        <v>716044951.56236839</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" si="22"/>
+        <v>516333992.65349513</v>
+      </c>
+      <c r="AC37">
+        <f t="shared" si="23"/>
+        <v>367986359.32449251</v>
+      </c>
+      <c r="AD37">
+        <f t="shared" si="24"/>
+        <v>261357066.79222032</v>
+      </c>
+      <c r="AE37">
+        <f t="shared" si="25"/>
+        <v>183485885.71604943</v>
+      </c>
+      <c r="AF37">
+        <f t="shared" si="26"/>
+        <v>138607720.26813611</v>
+      </c>
+      <c r="AG37">
+        <f t="shared" si="27"/>
+        <v>104735904.11384594</v>
+      </c>
+      <c r="AH37">
+        <f t="shared" si="28"/>
+        <v>79410113.876337677</v>
+      </c>
+      <c r="AI37">
+        <f t="shared" si="29"/>
+        <v>59998545.081650354</v>
+      </c>
+      <c r="AJ37">
+        <f t="shared" si="30"/>
+        <v>45183847.621797651</v>
+      </c>
+      <c r="AK37">
+        <f t="shared" si="31"/>
+        <v>3458873061.9956007</v>
+      </c>
+    </row>
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>7.78</v>
       </c>
@@ -2781,52 +3620,100 @@
         <v>4.0416649059473944</v>
       </c>
       <c r="N38">
+        <f t="shared" si="19"/>
+        <v>121425742.574257</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="7"/>
+        <v>1112410706.8913422</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="8"/>
+        <v>1012860862.1700222</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="9"/>
+        <v>920900164.48097098</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="10"/>
+        <v>830310873.40984416</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="11"/>
+        <v>739395255.6537118</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="12"/>
+        <v>645431260.79466617</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="13"/>
+        <v>611754714.81718576</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="14"/>
+        <v>579610543.40662265</v>
+      </c>
+      <c r="W38">
         <f t="shared" si="15"/>
-        <v>121425742.574257</v>
-      </c>
-      <c r="O38">
-        <f t="shared" si="4"/>
+        <v>550602355.51513052</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="16"/>
+        <v>521027663.02512228</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="17"/>
+        <v>490762162.44097692</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="20"/>
         <v>1112410706.8913422</v>
       </c>
-      <c r="P38">
-        <f t="shared" si="5"/>
-        <v>1012860862.1700222</v>
-      </c>
-      <c r="Q38">
-        <f t="shared" si="6"/>
-        <v>920900164.48097098</v>
-      </c>
-      <c r="R38">
-        <f t="shared" si="7"/>
-        <v>830310873.40984416</v>
-      </c>
-      <c r="S38">
-        <f t="shared" si="8"/>
-        <v>739395255.6537118</v>
-      </c>
-      <c r="T38">
-        <f t="shared" si="9"/>
-        <v>645431260.79466617</v>
-      </c>
-      <c r="U38">
-        <f t="shared" si="10"/>
-        <v>611754714.81718576</v>
-      </c>
-      <c r="V38">
-        <f t="shared" si="11"/>
-        <v>579610543.40662265</v>
-      </c>
-      <c r="W38">
-        <f t="shared" si="12"/>
-        <v>550602355.51513052</v>
-      </c>
-      <c r="X38">
-        <f t="shared" si="13"/>
-        <v>521027663.02512228</v>
-      </c>
-      <c r="Y38">
-        <f t="shared" si="14"/>
-        <v>490762162.44097692</v>
+      <c r="AA38">
+        <f t="shared" si="21"/>
+        <v>804041608.05804992</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" si="22"/>
+        <v>580323313.04756308</v>
+      </c>
+      <c r="AC38">
+        <f t="shared" si="23"/>
+        <v>415362156.82129419</v>
+      </c>
+      <c r="AD38">
+        <f t="shared" si="24"/>
+        <v>293624029.09765911</v>
+      </c>
+      <c r="AE38">
+        <f t="shared" si="25"/>
+        <v>203466851.09119451</v>
+      </c>
+      <c r="AF38">
+        <f t="shared" si="26"/>
+        <v>153091023.44019219</v>
+      </c>
+      <c r="AG38">
+        <f t="shared" si="27"/>
+        <v>115142965.8151685</v>
+      </c>
+      <c r="AH38">
+        <f t="shared" si="28"/>
+        <v>86829626.583829299</v>
+      </c>
+      <c r="AI38">
+        <f t="shared" si="29"/>
+        <v>65225795.401748836</v>
+      </c>
+      <c r="AJ38">
+        <f t="shared" si="30"/>
+        <v>48770634.619756535</v>
+      </c>
+      <c r="AK38">
+        <f t="shared" si="31"/>
+        <v>3878288710.8677983</v>
       </c>
     </row>
   </sheetData>
